--- a/Employee_Reports35/Nelson Jr Ybut Sancho Q0610.xlsx
+++ b/Employee_Reports35/Nelson Jr Ybut Sancho Q0610.xlsx
@@ -563,11 +563,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -661,11 +661,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -710,11 +710,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -759,11 +759,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -808,11 +808,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -857,11 +857,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -906,11 +906,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -955,11 +955,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1004,11 +1004,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1053,11 +1053,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1102,11 +1102,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1151,11 +1151,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1200,11 +1200,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1249,11 +1249,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1298,11 +1298,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1347,11 +1347,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1396,11 +1396,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1445,11 +1445,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1494,11 +1494,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1543,11 +1543,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1592,11 +1592,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1641,11 +1641,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1690,11 +1690,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1727,11 +1727,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1776,11 +1776,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1825,11 +1825,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1874,11 +1874,11 @@
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
@@ -1912,11 +1912,11 @@
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">

--- a/Employee_Reports35/Nelson Jr Ybut Sancho Q0610.xlsx
+++ b/Employee_Reports35/Nelson Jr Ybut Sancho Q0610.xlsx
@@ -563,11 +563,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -661,11 +661,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -710,11 +710,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -759,11 +759,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -808,11 +808,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -857,11 +857,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -906,11 +906,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -955,11 +955,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1004,11 +1004,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1053,11 +1053,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1102,11 +1102,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1151,11 +1151,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1200,11 +1200,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1249,11 +1249,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1298,11 +1298,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1347,11 +1347,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1396,11 +1396,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1445,11 +1445,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1494,11 +1494,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1543,11 +1543,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1592,11 +1592,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1641,11 +1641,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1690,11 +1690,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1727,11 +1727,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1776,11 +1776,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1825,11 +1825,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1874,11 +1874,11 @@
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
@@ -1912,11 +1912,11 @@
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
@@ -1940,7 +1940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1949,7 +1949,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -2060,21 +2060,52 @@
       <c r="G4" s="3" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr"/>
-      <c r="B5" s="3" t="inlineStr"/>
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Asrs Stacker Crane</t>
+        </is>
+      </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
+          <t>30-Oct-2025</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>83.54%</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Approved Score. date is valid</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr"/>
+      <c r="B6" s="3" t="inlineStr"/>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
           <t>TOTAL AVERAGE</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>88.75%</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr"/>
-      <c r="F5" s="3" t="inlineStr"/>
-      <c r="G5" s="3" t="n"/>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>87.02%</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr"/>
+      <c r="F6" s="3" t="inlineStr"/>
+      <c r="G6" s="3" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
